--- a/ClassSample/示例说明.xlsx
+++ b/ClassSample/示例说明.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svn\CodeBase\程序\Egret3DGUI\egret-3d\ClassSample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wuguo\Desktop\GOB\Egret3D\egret-3d\ClassSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Class_3DPosToScenePos</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +289,13 @@
   </si>
   <si>
     <t>可以使用PickEvent3D事件进行监听，也可以主动调用Picker.pickObject3DList接口进行拣选指定的物体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class_ReSceneLoad</t>
+  </si>
+  <si>
+    <t>场景重复加载和卸载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -710,7 +717,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -882,6 +889,14 @@
       </c>
       <c r="C27" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
